--- a/uml2es/excel/uml2es-excel-mapping-template.xlsx
+++ b/uml2es/excel/uml2es-excel-mapping-template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Properties:</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>Discovery: Collections</t>
+  </si>
+  <si>
+    <t>Discovery: URI Patterns</t>
+  </si>
+  <si>
+    <t>Discovery: Sample Data</t>
+  </si>
+  <si>
+    <t>Discovery: Alternate Names</t>
+  </si>
+  <si>
+    <t>Linebreak on Mac: Ctrl-Option-Return</t>
+  </si>
+  <si>
+    <t>Linebreak on Windows: Alt-Return</t>
   </si>
 </sst>
 </file>
@@ -214,20 +232,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,6 +248,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +608,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -599,30 +617,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="46" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -646,7 +664,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -659,7 +677,7 @@
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -667,12 +685,12 @@
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,10 +699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -692,8 +710,8 @@
     <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
@@ -714,71 +732,111 @@
     <col min="23" max="23" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
